--- a/VodovozReports/Reports/Orders/FastDeliveryAdditionalLoadingReport.xlsx
+++ b/VodovozReports/Reports/Orders/FastDeliveryAdditionalLoadingReport.xlsx
@@ -91,8 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -205,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,6 +240,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,7 +328,7 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AMD4" s="6"/>
